--- a/sample-loadcommand/commands-v1.xlsx
+++ b/sample-loadcommand/commands-v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpa\Documents\GitHub\Load4wrdMessagerBot\sample-loadcommand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king.a\Documents\GitHub\Load4wrd\sample-loadcommand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,16 +98,16 @@
     <t>Check main/company wallet available</t>
   </si>
   <si>
-    <t>0949-166-7621</t>
-  </si>
-  <si>
     <t>GATEWAY 1 (SMART)</t>
   </si>
   <si>
     <t>GATEWAY 2 (SUN)</t>
   </si>
   <si>
-    <t>0943-285-5957</t>
+    <t>0949-442-8914</t>
+  </si>
+  <si>
+    <t>0956-041-1216</t>
   </si>
 </sst>
 </file>
@@ -658,15 +658,15 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>27</v>
